--- a/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
+++ b/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018_2019\_Programming2\00_GameProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\1DAE_PROG_FINAL\Pinto_Tomas_NuclearMiami\Pinto_Tomas_NuclearMiami\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD12E1CC-3B2A-4282-A02F-23D599612F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game play description" sheetId="4" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Topic</t>
   </si>
@@ -130,76 +131,73 @@
     <t>Level</t>
   </si>
   <si>
-    <t xml:space="preserve">The  level is divided into several maps, each of which is completed when Rayman reaches the "!" sign at the end. </t>
-  </si>
-  <si>
     <t>Lives</t>
   </si>
   <si>
-    <t xml:space="preserve">The player is given a certain number of lives, which are lost when Rayman takes too many hits or falls into water or a pit. 
-If all lives are lost at any point, the "Game Over" screen will appear.
-Scattered around the level are small, sparkling blue spheres called Tings.
- If the player controlling Rayman picks up 100 (50 in the DSi version), he gains an extra life and the counter resets to zero. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of the level, Rayman must defeat a boss enemy. </t>
-  </si>
-  <si>
     <t>Boss enemy</t>
   </si>
   <si>
-    <t>The player comes across a variety of other power-ups and bonuses, such as a golden fist (which increases punch strength), a speed fist (which increases the speed of Rayman's punches), a power to restore Rayman's lost life energy, and flying blue elves whose touch shrinks Rayman down in size to access new areas.</t>
-  </si>
-  <si>
     <t>Game part</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">The player character is Rayman, who must travel through the level to free all of the caged Electoons. 
+    <t>Power-ups</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Enemies are drawn at the right position in the level</t>
+  </si>
+  <si>
+    <t>Enemies perform their animations and move correctly</t>
+  </si>
+  <si>
+    <t>Power-ups are drawn at the right position in the level</t>
+  </si>
+  <si>
+    <t>Power-ups perform their animations and move correctly</t>
+  </si>
+  <si>
+    <t>Interaction player enemies</t>
+  </si>
+  <si>
+    <t>The game is a mix of Nuclear Throne with Hotline Miami, both of these are topdown fastpaced shooter games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The player backstory is still no decided.
 </t>
   </si>
   <si>
-    <t>Power-ups</t>
-  </si>
-  <si>
-    <t>Enemies</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>The Great Protoon maintains peace and balance throughout a valley that is Rayman's world. 
-One day, the evil Mr. Dark steals the Great Protoon, leaving the Electoons, small beings who gravitate around it, vulnerable to Mr. Dark's forces, who have captured the Electoons in cages. 
-Rayman must free the Electoons and recover the Great Protoon to restore the valley's balance. 
-Betilla the Fairy, a guardian of the Great Protoon, frequently interacts with Rayman as needed to give him additional magical powers along his journey.</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Enemies are drawn at the right position in the level</t>
-  </si>
-  <si>
-    <t>Enemies perform their animations and move correctly</t>
-  </si>
-  <si>
-    <t>Power-ups are drawn at the right position in the level</t>
-  </si>
-  <si>
-    <t>Power-ups perform their animations and move correctly</t>
-  </si>
-  <si>
-    <t>Interaction player enemies</t>
+    <t>In the game, for each level you spawn in an initial room with basic weaponry. He collects new weapons from the level as he progressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact ammount of health is not yet decided but it will be low, this so to provide a sense of challenge. </t>
+  </si>
+  <si>
+    <t>There will be multiple different sorts of enemies, Melee, With simple weaponry, with more complex weaponry, and finally the boss with a rare weapon that you can take to the next level</t>
+  </si>
+  <si>
+    <t>When it comes to power ups, it will mostly be health(med kits). Not decided yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of each level there are stronger versions of the enemies, these are bosses. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -309,11 +307,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -645,119 +643,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="206.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="206.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="cite_note-atarimanual6-3" display="https://en.wikipedia.org/wiki/Rayman_(video_game) - cite_note-atarimanual6-3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -779,7 +774,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -793,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -807,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -815,7 +810,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -826,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -837,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -845,7 +840,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -859,7 +854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -870,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -884,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -892,7 +887,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -904,7 +899,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D1"/>
+  <autoFilter ref="B1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
@@ -933,10 +928,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B9:B11 B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B9:B11 B13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Not started,WIP,Finished"</formula1>
     </dataValidation>
   </dataValidations>
@@ -946,21 +941,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -968,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -976,7 +971,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -986,7 +981,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -996,7 +991,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1006,9 +1001,9 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8">
         <v>43538</v>
@@ -1016,297 +1011,297 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1318,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1326,300 +1321,300 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1630,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,300 +1633,300 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1942,20 +1937,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <TaxCatchAll xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
+    <m99485b88215436a82099f8287cba0b0 xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m99485b88215436a82099f8287cba0b0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100723942CCEB3A674D8F1F6472CCEFB38E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50e7a8f2d4c6c7943ba3cd2d7e94098e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="128482ec-0431-40d5-ab26-89ea2a4f3ccd" xmlns:ns3="60eb0cf4-ae2a-4762-800a-cb593b869ecb" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns5="a2e691a9-fcfc-4d85-a390-1894fe98bd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21625c6912a34b11760d9f0cd1effc5d" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
@@ -2182,35 +2198,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <TaxCatchAll xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
-    <m99485b88215436a82099f8287cba0b0 xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m99485b88215436a82099f8287cba0b0>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D7A735-0C70-415B-9818-7375747E7F3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BB2DE4-ECFA-40C6-BD06-2919F1D421BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E806665B-1538-472C-8978-66914F77F02C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E806665B-1538-472C-8978-66914F77F02C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BB2DE4-ECFA-40C6-BD06-2919F1D421BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D7A735-0C70-415B-9818-7375747E7F3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
+    <ds:schemaRef ds:uri="60eb0cf4-ae2a-4762-800a-cb593b869ecb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="a2e691a9-fcfc-4d85-a390-1894fe98bd9e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
+++ b/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\1DAE_PROG_FINAL\Pinto_Tomas_NuclearMiami\Pinto_Tomas_NuclearMiami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD12E1CC-3B2A-4282-A02F-23D599612F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8079162F-26E1-4F67-A02A-5B94CDF729FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game play description" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Topic</t>
   </si>
@@ -53,9 +53,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Intro animation</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -65,60 +62,18 @@
     <t>Time spent</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Find spritesheet</t>
-  </si>
-  <si>
-    <t>spitesheet ready to use</t>
-  </si>
-  <si>
-    <t>Avatar class</t>
-  </si>
-  <si>
-    <t>function IsHit</t>
-  </si>
-  <si>
-    <t>function Die</t>
-  </si>
-  <si>
-    <t>Prop class</t>
-  </si>
-  <si>
-    <t>Find Spritesheet</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Avatar can walk through the level</t>
-  </si>
-  <si>
     <t>Functionality</t>
   </si>
   <si>
     <t>Works since</t>
   </si>
   <si>
-    <t>Level is drawn</t>
-  </si>
-  <si>
-    <t>Camera follows the avatar</t>
-  </si>
-  <si>
-    <t>Avatar performs all animations correctly</t>
-  </si>
-  <si>
     <t>Working functionality  at milestone</t>
   </si>
   <si>
@@ -152,44 +107,146 @@
     <t>General</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Enemies are drawn at the right position in the level</t>
-  </si>
-  <si>
-    <t>Enemies perform their animations and move correctly</t>
-  </si>
-  <si>
-    <t>Power-ups are drawn at the right position in the level</t>
-  </si>
-  <si>
-    <t>Power-ups perform their animations and move correctly</t>
-  </si>
-  <si>
-    <t>Interaction player enemies</t>
-  </si>
-  <si>
     <t>The game is a mix of Nuclear Throne with Hotline Miami, both of these are topdown fastpaced shooter games.</t>
   </si>
   <si>
-    <t xml:space="preserve">The player backstory is still no decided.
+    <t>In the game, for each level you spawn in an initial room with basic weaponry. He collects new weapons from the level as he progressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact ammount of health is not yet decided but it will be low, this so to provide a sense of challenge. </t>
+  </si>
+  <si>
+    <t>There will be multiple different sorts of enemies, Melee, With simple weaponry, with more complex weaponry, and finally the boss with a rare weapon that you can take to the next level</t>
+  </si>
+  <si>
+    <t>When it comes to power ups, it will mostly be health(med kits). Not decided yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of each level there are stronger versions of the enemies, these are bosses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The player backstory is still not decided.
 </t>
   </si>
   <si>
-    <t>In the game, for each level you spawn in an initial room with basic weaponry. He collects new weapons from the level as he progressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The exact ammount of health is not yet decided but it will be low, this so to provide a sense of challenge. </t>
-  </si>
-  <si>
-    <t>There will be multiple different sorts of enemies, Melee, With simple weaponry, with more complex weaponry, and finally the boss with a rare weapon that you can take to the next level</t>
-  </si>
-  <si>
-    <t>When it comes to power ups, it will mostly be health(med kits). Not decided yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each level there are stronger versions of the enemies, these are bosses. </t>
+    <t>Level collisions</t>
+  </si>
+  <si>
+    <t>Objects can collide with each other</t>
+  </si>
+  <si>
+    <t>Scripting language used for Ui</t>
+  </si>
+  <si>
+    <t>Scripting language used for Texture preloading</t>
+  </si>
+  <si>
+    <t>Scripting language used for Audio preloading</t>
+  </si>
+  <si>
+    <t>Scripting language used for Scene loading</t>
+  </si>
+  <si>
+    <t>Complex ui system which allows for fast iteration and ease of functionality through an id and callback system</t>
+  </si>
+  <si>
+    <t>Pickups that both the player and the ai can pickup</t>
+  </si>
+  <si>
+    <t>Different weapons that can be picked up and shot by both ai and player, these weapons are pickups</t>
+  </si>
+  <si>
+    <t>Flexible projectile mechanics</t>
+  </si>
+  <si>
+    <t>Blood particle system</t>
+  </si>
+  <si>
+    <t>Finish making sprites</t>
+  </si>
+  <si>
+    <t>Player can also drop items</t>
+  </si>
+  <si>
+    <t>Player controls</t>
+  </si>
+  <si>
+    <t>Ai can walk through the level with custom pathfinding</t>
+  </si>
+  <si>
+    <t>Projectiles can do dammage and apply kickback to the object they hit</t>
+  </si>
+  <si>
+    <t>Gameobject</t>
+  </si>
+  <si>
+    <t>Basic behaviour</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path finding </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Pickups</t>
+  </si>
+  <si>
+    <t>Basic Weapon pickups</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Populating the level with static items</t>
+  </si>
+  <si>
+    <t>Implementing doors</t>
+  </si>
+  <si>
+    <t>Animation for arms</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>UI and TankScript</t>
+  </si>
+  <si>
+    <t>Plan the scripting language</t>
+  </si>
+  <si>
+    <t>Basic functionality for loading and displaying UI</t>
+  </si>
+  <si>
+    <t>Callback system</t>
+  </si>
+  <si>
+    <t>Asset preloader for textures and audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene loader </t>
+  </si>
+  <si>
+    <t>Menu background</t>
+  </si>
+  <si>
+    <t>Game reset</t>
+  </si>
+  <si>
+    <t>Death screen</t>
+  </si>
+  <si>
+    <t>Win Screen</t>
+  </si>
+  <si>
+    <t>Info ui</t>
   </si>
 </sst>
 </file>
@@ -313,7 +370,203 @@
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -646,11 +899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,72 +914,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,18 +986,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -763,12 +1014,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -776,162 +1027,388 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="Finished">
+  <conditionalFormatting sqref="C6:C8 C20 C1:C4 C28:C1048576">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="28" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="33" priority="56" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C13">
-    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="Good for now">
+  <conditionalFormatting sqref="C28:C30 C6:C8 C3:C4">
+    <cfRule type="containsText" dxfId="32" priority="53" operator="containsText" text="Good for now">
       <formula>NOT(ISERROR(SEARCH("Good for now",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="26" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="31" priority="54" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B7 B9:B11 B13:B1048576">
-    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="Low">
+  <conditionalFormatting sqref="B6:B8 B20 B1:B4 B28:B1048576">
+    <cfRule type="containsText" dxfId="30" priority="50" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="24" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="28" priority="52" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C26">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C26">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B26">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B9:B11 B13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B12:B14 B16:B19 B6:B10 B3:B4 B21:B26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C14 C16:C19 C6:C10 C3:C4 C28:C30 C21:C26" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Not started,WIP,Finished"</formula1>
     </dataValidation>
   </dataValidations>
@@ -944,9 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,64 +1434,42 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8">
-        <v>43528</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="8">
-        <v>43531</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8">
-        <v>43531</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8">
-        <v>43538</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="8">
-        <v>43538</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1318,76 +1773,76 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="140.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1400,47 +1855,65 @@
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
@@ -1630,7 +2103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,74 +2113,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
@@ -1951,6 +2404,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
@@ -1960,15 +2422,6 @@
     </m99485b88215436a82099f8287cba0b0>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,20 +2652,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E806665B-1538-472C-8978-66914F77F02C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BB2DE4-ECFA-40C6-BD06-2919F1D421BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
     <ds:schemaRef ds:uri="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E806665B-1538-472C-8978-66914F77F02C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
+++ b/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami/Pinto_Tomas_NuclearMiami.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\1DAE_PROG_FINAL\Pinto_Tomas_NuclearMiami\Pinto_Tomas_NuclearMiami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lego\Desktop\Pinto_Tomas_NuclearMiami\Pinto_Tomas_NuclearMiami\Pinto_Tomas_NuclearMiami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8079162F-26E1-4F67-A02A-5B94CDF729FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065A2488-6F1E-4B3D-8731-BDC08B70F4B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="4455" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game play description" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>Topic</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -114,15 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">The exact ammount of health is not yet decided but it will be low, this so to provide a sense of challenge. </t>
-  </si>
-  <si>
-    <t>There will be multiple different sorts of enemies, Melee, With simple weaponry, with more complex weaponry, and finally the boss with a rare weapon that you can take to the next level</t>
-  </si>
-  <si>
-    <t>When it comes to power ups, it will mostly be health(med kits). Not decided yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each level there are stronger versions of the enemies, these are bosses. </t>
   </si>
   <si>
     <t xml:space="preserve">The player backstory is still not decided.
@@ -207,9 +192,6 @@
     <t>Populating the level with static items</t>
   </si>
   <si>
-    <t>Implementing doors</t>
-  </si>
-  <si>
     <t>Animation for arms</t>
   </si>
   <si>
@@ -247,6 +229,111 @@
   </si>
   <si>
     <t>Info ui</t>
+  </si>
+  <si>
+    <t>More Levels</t>
+  </si>
+  <si>
+    <t>Improved Player and Ai mechanics</t>
+  </si>
+  <si>
+    <t>Rocket Launcher</t>
+  </si>
+  <si>
+    <t>Health PickUp</t>
+  </si>
+  <si>
+    <t>Ammo PickUp</t>
+  </si>
+  <si>
+    <t>Gameplay Balancing</t>
+  </si>
+  <si>
+    <t>NextLevel Pads for changing level</t>
+  </si>
+  <si>
+    <t>Scripting language now loads all resources instead of just textures</t>
+  </si>
+  <si>
+    <t>Custom Text Renderer</t>
+  </si>
+  <si>
+    <t>Custom Ui Debug Features</t>
+  </si>
+  <si>
+    <t>Final Boss Fight</t>
+  </si>
+  <si>
+    <t>Boss Fight</t>
+  </si>
+  <si>
+    <t>Ammo and Health pickups</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>Went with game as background</t>
+  </si>
+  <si>
+    <t>After multiple level you find the bossfight, a giat potato with a rocket launcher</t>
+  </si>
+  <si>
+    <t>When it comes to power ups, it will mostly be health kits and ammo kits.</t>
+  </si>
+  <si>
+    <t>You have two types of enemies, the normal enemies that move arround and the turrets on the walls, the turrets can not be destroyed and you can finish a level with out killing them</t>
+  </si>
+  <si>
+    <t>Turrets</t>
+  </si>
+  <si>
+    <t>Follower Enemies</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Ammo Pickup</t>
+  </si>
+  <si>
+    <t>Health Pickup</t>
+  </si>
+  <si>
+    <t>Scripting Language</t>
+  </si>
+  <si>
+    <t>User interface with scripting language</t>
+  </si>
+  <si>
+    <t>Asset Preloading with scripting language</t>
+  </si>
+  <si>
+    <t>Scene loading with scritpting language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start and End </t>
+  </si>
+  <si>
+    <t>Music for menu and game</t>
+  </si>
+  <si>
+    <t>Directional audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooting sounds for weapons </t>
+  </si>
+  <si>
+    <t>Level changing</t>
+  </si>
+  <si>
+    <t>Blood Particles</t>
   </si>
 </sst>
 </file>
@@ -370,7 +457,105 @@
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -903,7 +1088,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,66 +1099,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,13 +1171,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,12 +1199,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1027,29 +1212,35 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1057,21 +1248,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1079,21 +1270,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1101,314 +1292,405 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="C6:C8 C20 C1:C4 C28:C1048576">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="Finished">
+  <conditionalFormatting sqref="C6:C8 C20 C1:C4 C28:C29 C16:C18 C32:C1048576">
+    <cfRule type="containsText" dxfId="48" priority="76" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="56" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="47" priority="77" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30 C6:C8 C3:C4">
-    <cfRule type="containsText" dxfId="32" priority="53" operator="containsText" text="Good for now">
+  <conditionalFormatting sqref="C28:C29 C6:C8 C3:C4 C16:C18">
+    <cfRule type="containsText" dxfId="46" priority="74" operator="containsText" text="Good for now">
       <formula>NOT(ISERROR(SEARCH("Good for now",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="54" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="45" priority="75" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8 B20 B1:B4 B28:B1048576">
-    <cfRule type="containsText" dxfId="30" priority="50" operator="containsText" text="Low">
+  <conditionalFormatting sqref="B6:B8 B20 B1:B4 B28:B29 B16:B18 B32:B1048576">
+    <cfRule type="containsText" dxfId="44" priority="71" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="43" priority="72" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="52" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="73" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Good for now">
+    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Good for now">
       <formula>NOT(ISERROR(SEARCH("Good for now",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Good for now">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Good for now">
       <formula>NOT(ISERROR(SEARCH("Good for now",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="31" priority="40" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",B12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Good for now">
-      <formula>NOT(ISERROR(SEARCH("Good for now",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B19">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Good for now">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Good for now">
       <formula>NOT(ISERROR(SEARCH("Good for now",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B26">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Good for now">
+      <formula>NOT(ISERROR(SEARCH("Good for now",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",B21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",B31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",B21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",B31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",B21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("High",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B12:B14 B16:B19 B6:B10 B3:B4 B21:B26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B31 B6:B10 B3:B4 B21:B26 B12:B18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C14 C16:C19 C6:C10 C3:C4 C28:C30 C21:C26" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C10 C3:C4 C12:C18 C21:C26 C28:C31" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Not started,WIP,Finished"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1423,7 +1705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,114 +1716,150 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1773,7 +2091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,136 +2101,136 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2103,7 +2421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,59 +2431,81 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
@@ -2394,7 +2734,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,18 +2753,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <TaxCatchAll xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
-    <m99485b88215436a82099f8287cba0b0 xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m99485b88215436a82099f8287cba0b0>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100723942CCEB3A674D8F1F6472CCEFB38E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50e7a8f2d4c6c7943ba3cd2d7e94098e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="128482ec-0431-40d5-ab26-89ea2a4f3ccd" xmlns:ns3="60eb0cf4-ae2a-4762-800a-cb593b869ecb" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns5="a2e691a9-fcfc-4d85-a390-1894fe98bd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21625c6912a34b11760d9f0cd1effc5d" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
@@ -2651,6 +2979,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <TaxCatchAll xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
+    <m99485b88215436a82099f8287cba0b0 xmlns="128482ec-0431-40d5-ab26-89ea2a4f3ccd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m99485b88215436a82099f8287cba0b0>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E806665B-1538-472C-8978-66914F77F02C}">
   <ds:schemaRefs>
@@ -2660,17 +3000,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BB2DE4-ECFA-40C6-BD06-2919F1D421BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D7A735-0C70-415B-9818-7375747E7F3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2689,4 +3018,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BB2DE4-ECFA-40C6-BD06-2919F1D421BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="128482ec-0431-40d5-ab26-89ea2a4f3ccd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>